--- a/data/child.xlsx
+++ b/data/child.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugra\OneDrive\Belgeler\veri_proje\veri_dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bugra\OneDrive\Belgeler\emu430-fall2024-team-quantr\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EBFCB2-B3CC-4310-B709-E60E58959589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14058C2-5BA6-49C4-A124-56082EFD19E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18084" yWindow="1260" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2424" yWindow="2352" windowWidth="12888" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,7 +496,7 @@
   <dimension ref="A1:J297"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
